--- a/Evaluation result/3 times Coverage.xlsx
+++ b/Evaluation result/3 times Coverage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\drindroid-github\DinoDroid\Evaluation result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\android-rf\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBDC245-F9AB-4DED-BCF3-4DA484B1A881}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8775B04F-F6D5-411F-B46C-F92FE70328F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="73">
   <si>
     <t>1th-time</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>QBE</t>
+  </si>
+  <si>
+    <t>Q-test</t>
   </si>
 </sst>
 </file>
@@ -567,15 +570,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X66"/>
+  <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66:X66"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X66" sqref="X66:Y66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,55 +586,64 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>1</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" t="s">
         <v>71</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>2</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>69</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -639,55 +651,64 @@
         <v>25</v>
       </c>
       <c r="D2">
+        <v>44</v>
+      </c>
+      <c r="E2">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>32</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>20</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <v>37</v>
       </c>
-      <c r="L2">
+      <c r="P2">
+        <v>37</v>
+      </c>
+      <c r="Q2">
         <v>34</v>
       </c>
-      <c r="M2">
+      <c r="R2">
         <v>36</v>
       </c>
-      <c r="N2">
+      <c r="S2">
         <v>28</v>
       </c>
-      <c r="O2">
+      <c r="T2">
         <v>41</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>5</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <v>29</v>
       </c>
-      <c r="U2">
+      <c r="Y2">
+        <v>43</v>
+      </c>
+      <c r="Z2">
         <v>28</v>
       </c>
-      <c r="V2">
+      <c r="AA2">
         <v>22</v>
       </c>
-      <c r="W2">
+      <c r="AB2">
         <v>35</v>
       </c>
-      <c r="X2">
+      <c r="AC2">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -695,55 +716,64 @@
         <v>26</v>
       </c>
       <c r="D3">
+        <v>29</v>
+      </c>
+      <c r="E3">
         <v>27</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>44</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>30</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>6</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>26</v>
       </c>
-      <c r="L3">
+      <c r="P3">
+        <v>29</v>
+      </c>
+      <c r="Q3">
         <v>27</v>
       </c>
-      <c r="M3">
+      <c r="R3">
         <v>45</v>
       </c>
-      <c r="N3">
+      <c r="S3">
         <v>31</v>
       </c>
-      <c r="O3">
+      <c r="T3">
         <v>42</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>6</v>
       </c>
-      <c r="T3">
+      <c r="X3">
         <v>27</v>
       </c>
-      <c r="U3">
+      <c r="Y3">
+        <v>29</v>
+      </c>
+      <c r="Z3">
         <v>27</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
         <v>44</v>
       </c>
-      <c r="W3">
+      <c r="AB3">
         <v>30</v>
       </c>
-      <c r="X3">
+      <c r="AC3">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -751,55 +781,64 @@
         <v>15</v>
       </c>
       <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>22</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>15</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>7</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <v>22</v>
       </c>
-      <c r="L4">
+      <c r="P4">
+        <v>27</v>
+      </c>
+      <c r="Q4">
         <v>15</v>
       </c>
-      <c r="M4">
+      <c r="R4">
         <v>25</v>
       </c>
-      <c r="N4">
+      <c r="S4">
         <v>16</v>
       </c>
-      <c r="O4">
+      <c r="T4">
         <v>32</v>
       </c>
-      <c r="R4" t="s">
+      <c r="V4" t="s">
         <v>7</v>
       </c>
-      <c r="T4">
+      <c r="X4">
         <v>20</v>
       </c>
-      <c r="U4">
+      <c r="Y4">
+        <v>23</v>
+      </c>
+      <c r="Z4">
         <v>18</v>
       </c>
-      <c r="V4">
+      <c r="AA4">
         <v>19</v>
       </c>
-      <c r="W4">
+      <c r="AB4">
         <v>16</v>
       </c>
-      <c r="X4">
+      <c r="AC4">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -807,55 +846,64 @@
         <v>53</v>
       </c>
       <c r="D5">
+        <v>39</v>
+      </c>
+      <c r="E5">
         <v>44</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>38</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>47</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>48</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>8</v>
       </c>
-      <c r="K5">
+      <c r="O5">
         <v>52</v>
       </c>
-      <c r="L5">
+      <c r="P5">
+        <v>38</v>
+      </c>
+      <c r="Q5">
         <v>41</v>
       </c>
-      <c r="M5">
+      <c r="R5">
         <v>39</v>
       </c>
-      <c r="N5">
+      <c r="S5">
         <v>50</v>
       </c>
-      <c r="O5">
+      <c r="T5">
         <v>49</v>
       </c>
-      <c r="R5" t="s">
+      <c r="V5" t="s">
         <v>8</v>
       </c>
-      <c r="T5">
+      <c r="X5">
         <v>51</v>
       </c>
-      <c r="U5">
+      <c r="Y5">
         <v>39</v>
       </c>
-      <c r="V5">
+      <c r="Z5">
+        <v>39</v>
+      </c>
+      <c r="AA5">
         <v>38</v>
       </c>
-      <c r="W5">
+      <c r="AB5">
         <v>49</v>
       </c>
-      <c r="X5">
+      <c r="AC5">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -863,55 +911,64 @@
         <v>78</v>
       </c>
       <c r="D6">
+        <v>69</v>
+      </c>
+      <c r="E6">
         <v>75</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>69</v>
-      </c>
-      <c r="F6">
-        <v>79</v>
       </c>
       <c r="G6">
         <v>79</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s">
         <v>9</v>
       </c>
-      <c r="K6">
+      <c r="O6">
         <v>78</v>
       </c>
-      <c r="L6">
+      <c r="P6">
+        <v>69</v>
+      </c>
+      <c r="Q6">
         <v>75</v>
       </c>
-      <c r="M6">
+      <c r="R6">
         <v>68</v>
       </c>
-      <c r="N6">
+      <c r="S6">
         <v>80</v>
-      </c>
-      <c r="O6">
-        <v>79</v>
-      </c>
-      <c r="R6" t="s">
-        <v>9</v>
       </c>
       <c r="T6">
         <v>79</v>
       </c>
-      <c r="U6">
+      <c r="V6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6">
+        <v>79</v>
+      </c>
+      <c r="Y6">
+        <v>69</v>
+      </c>
+      <c r="Z6">
         <v>75</v>
       </c>
-      <c r="V6">
+      <c r="AA6">
         <v>61</v>
       </c>
-      <c r="W6">
+      <c r="AB6">
         <v>79</v>
       </c>
-      <c r="X6">
+      <c r="AC6">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -919,55 +976,64 @@
         <v>21</v>
       </c>
       <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
         <v>23</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>24</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>10</v>
       </c>
-      <c r="K7">
+      <c r="O7">
         <v>16</v>
       </c>
-      <c r="L7">
+      <c r="P7">
+        <v>16</v>
+      </c>
+      <c r="Q7">
         <v>25</v>
       </c>
-      <c r="M7">
+      <c r="R7">
         <v>15</v>
       </c>
-      <c r="N7">
+      <c r="S7">
         <v>24</v>
       </c>
-      <c r="O7">
+      <c r="T7">
         <v>24</v>
       </c>
-      <c r="R7" t="s">
+      <c r="V7" t="s">
         <v>10</v>
-      </c>
-      <c r="T7">
-        <v>27</v>
-      </c>
-      <c r="U7">
-        <v>25</v>
-      </c>
-      <c r="V7">
-        <v>11</v>
-      </c>
-      <c r="W7">
-        <v>23</v>
       </c>
       <c r="X7">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y7">
+        <v>16</v>
+      </c>
+      <c r="Z7">
+        <v>25</v>
+      </c>
+      <c r="AA7">
+        <v>11</v>
+      </c>
+      <c r="AB7">
+        <v>23</v>
+      </c>
+      <c r="AC7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -975,55 +1041,64 @@
         <v>56</v>
       </c>
       <c r="D8">
+        <v>78</v>
+      </c>
+      <c r="E8">
         <v>80</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>79</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>81</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>64</v>
       </c>
-      <c r="I8" t="s">
+      <c r="M8" t="s">
         <v>11</v>
       </c>
-      <c r="K8">
+      <c r="O8">
         <v>78</v>
       </c>
-      <c r="L8">
+      <c r="P8">
+        <v>79</v>
+      </c>
+      <c r="Q8">
         <v>80</v>
       </c>
-      <c r="M8">
+      <c r="R8">
         <v>79</v>
       </c>
-      <c r="N8">
+      <c r="S8">
         <v>80</v>
       </c>
-      <c r="O8">
+      <c r="T8">
         <v>64</v>
       </c>
-      <c r="R8" t="s">
+      <c r="V8" t="s">
         <v>11</v>
       </c>
-      <c r="T8">
+      <c r="X8">
         <v>27</v>
       </c>
-      <c r="U8">
+      <c r="Y8">
+        <v>79</v>
+      </c>
+      <c r="Z8">
         <v>82</v>
       </c>
-      <c r="V8">
+      <c r="AA8">
         <v>27</v>
       </c>
-      <c r="W8">
+      <c r="AB8">
         <v>80</v>
       </c>
-      <c r="X8">
+      <c r="AC8">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1031,55 +1106,64 @@
         <v>65</v>
       </c>
       <c r="D9">
+        <v>63</v>
+      </c>
+      <c r="E9">
         <v>72</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>68</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>32</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>74</v>
       </c>
-      <c r="I9" t="s">
+      <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="K9">
+      <c r="O9">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="P9">
+        <v>68</v>
+      </c>
+      <c r="Q9">
         <v>65</v>
       </c>
-      <c r="M9">
+      <c r="R9">
         <v>66</v>
       </c>
-      <c r="N9">
+      <c r="S9">
         <v>35</v>
       </c>
-      <c r="O9">
+      <c r="T9">
         <v>75</v>
       </c>
-      <c r="R9" t="s">
+      <c r="V9" t="s">
         <v>12</v>
       </c>
-      <c r="T9">
+      <c r="X9">
         <v>72</v>
       </c>
-      <c r="U9">
+      <c r="Y9">
+        <v>64</v>
+      </c>
+      <c r="Z9">
         <v>63</v>
       </c>
-      <c r="V9">
+      <c r="AA9">
         <v>69</v>
       </c>
-      <c r="W9">
+      <c r="AB9">
         <v>31</v>
       </c>
-      <c r="X9">
+      <c r="AC9">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1090,52 +1174,61 @@
         <v>20</v>
       </c>
       <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
         <v>25</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>21</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>26</v>
       </c>
-      <c r="I10" t="s">
+      <c r="M10" t="s">
         <v>13</v>
       </c>
-      <c r="K10">
+      <c r="O10">
         <v>21</v>
       </c>
-      <c r="L10">
+      <c r="P10">
         <v>20</v>
       </c>
-      <c r="M10">
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10">
         <v>24</v>
       </c>
-      <c r="N10">
+      <c r="S10">
         <v>22</v>
       </c>
-      <c r="O10">
+      <c r="T10">
         <v>27</v>
       </c>
-      <c r="R10" t="s">
+      <c r="V10" t="s">
         <v>13</v>
       </c>
-      <c r="T10">
+      <c r="X10">
         <v>21</v>
       </c>
-      <c r="U10">
+      <c r="Y10">
         <v>20</v>
       </c>
-      <c r="V10">
+      <c r="Z10">
+        <v>20</v>
+      </c>
+      <c r="AA10">
         <v>26</v>
       </c>
-      <c r="W10">
+      <c r="AB10">
         <v>21</v>
       </c>
-      <c r="X10">
+      <c r="AC10">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1143,55 +1236,64 @@
         <v>37</v>
       </c>
       <c r="D11">
+        <v>36</v>
+      </c>
+      <c r="E11">
         <v>39</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>32</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>40</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>46</v>
       </c>
-      <c r="I11" t="s">
+      <c r="M11" t="s">
         <v>14</v>
       </c>
-      <c r="K11">
+      <c r="O11">
         <v>37</v>
       </c>
-      <c r="L11">
+      <c r="P11">
         <v>36</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
+        <v>36</v>
+      </c>
+      <c r="R11">
         <v>32</v>
       </c>
-      <c r="N11">
+      <c r="S11">
         <v>36</v>
       </c>
-      <c r="O11">
+      <c r="T11">
         <v>46</v>
       </c>
-      <c r="R11" t="s">
+      <c r="V11" t="s">
         <v>14</v>
       </c>
-      <c r="T11">
+      <c r="X11">
         <v>37</v>
       </c>
-      <c r="U11">
+      <c r="Y11">
+        <v>36</v>
+      </c>
+      <c r="Z11">
         <v>39</v>
       </c>
-      <c r="V11">
+      <c r="AA11">
         <v>39</v>
       </c>
-      <c r="W11">
+      <c r="AB11">
         <v>29</v>
       </c>
-      <c r="X11">
+      <c r="AC11">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1199,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -1208,46 +1310,55 @@
         <v>4</v>
       </c>
       <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
         <v>15</v>
       </c>
-      <c r="K12">
+      <c r="O12">
         <v>5</v>
       </c>
-      <c r="L12">
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
         <v>4</v>
       </c>
-      <c r="M12">
+      <c r="R12">
         <v>6</v>
       </c>
-      <c r="N12">
+      <c r="S12">
         <v>4</v>
       </c>
-      <c r="O12">
+      <c r="T12">
         <v>10</v>
       </c>
-      <c r="R12" t="s">
+      <c r="V12" t="s">
         <v>15</v>
       </c>
-      <c r="T12">
+      <c r="X12">
         <v>5</v>
       </c>
-      <c r="U12">
+      <c r="Y12">
         <v>4</v>
       </c>
-      <c r="V12">
+      <c r="Z12">
+        <v>4</v>
+      </c>
+      <c r="AA12">
         <v>6</v>
       </c>
-      <c r="W12">
+      <c r="AB12">
         <v>4</v>
       </c>
-      <c r="X12">
+      <c r="AC12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1255,55 +1366,64 @@
         <v>46</v>
       </c>
       <c r="D13">
+        <v>29</v>
+      </c>
+      <c r="E13">
         <v>46</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>51</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>60</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>68</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M13" t="s">
         <v>16</v>
       </c>
-      <c r="K13">
+      <c r="O13">
         <v>57</v>
       </c>
-      <c r="L13">
+      <c r="P13">
+        <v>29</v>
+      </c>
+      <c r="Q13">
         <v>49</v>
       </c>
-      <c r="M13">
+      <c r="R13">
         <v>54</v>
       </c>
-      <c r="N13">
+      <c r="S13">
         <v>60</v>
       </c>
-      <c r="O13">
+      <c r="T13">
         <v>68</v>
       </c>
-      <c r="R13" t="s">
+      <c r="V13" t="s">
         <v>16</v>
       </c>
-      <c r="T13">
+      <c r="X13">
         <v>45</v>
       </c>
-      <c r="U13">
+      <c r="Y13">
+        <v>29</v>
+      </c>
+      <c r="Z13">
         <v>49</v>
       </c>
-      <c r="V13">
+      <c r="AA13">
         <v>42</v>
       </c>
-      <c r="W13">
+      <c r="AB13">
         <v>60</v>
       </c>
-      <c r="X13">
+      <c r="AC13">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1311,55 +1431,64 @@
         <v>82</v>
       </c>
       <c r="D14">
+        <v>74</v>
+      </c>
+      <c r="E14">
         <v>58</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>72</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>82</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>84</v>
       </c>
-      <c r="I14" t="s">
+      <c r="M14" t="s">
         <v>17</v>
       </c>
-      <c r="K14">
+      <c r="O14">
         <v>82</v>
       </c>
-      <c r="L14">
+      <c r="P14">
+        <v>77</v>
+      </c>
+      <c r="Q14">
         <v>63</v>
       </c>
-      <c r="M14">
+      <c r="R14">
         <v>75</v>
       </c>
-      <c r="N14">
+      <c r="S14">
         <v>79</v>
       </c>
-      <c r="O14">
+      <c r="T14">
         <v>84</v>
       </c>
-      <c r="R14" t="s">
+      <c r="V14" t="s">
         <v>17</v>
       </c>
-      <c r="T14">
+      <c r="X14">
         <v>82</v>
       </c>
-      <c r="U14">
+      <c r="Y14">
+        <v>76</v>
+      </c>
+      <c r="Z14">
         <v>59</v>
       </c>
-      <c r="V14">
+      <c r="AA14">
         <v>75</v>
       </c>
-      <c r="W14">
+      <c r="AB14">
         <v>81</v>
       </c>
-      <c r="X14">
+      <c r="AC14">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1373,49 +1502,58 @@
         <v>45</v>
       </c>
       <c r="F15">
+        <v>45</v>
+      </c>
+      <c r="G15">
         <v>46</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>45</v>
       </c>
-      <c r="I15" t="s">
+      <c r="M15" t="s">
         <v>18</v>
       </c>
-      <c r="K15">
+      <c r="O15">
         <v>44</v>
       </c>
-      <c r="L15">
+      <c r="P15">
         <v>45</v>
       </c>
-      <c r="M15">
+      <c r="Q15">
         <v>45</v>
       </c>
-      <c r="N15">
+      <c r="R15">
+        <v>45</v>
+      </c>
+      <c r="S15">
         <v>46</v>
       </c>
-      <c r="O15">
+      <c r="T15">
         <v>45</v>
       </c>
-      <c r="R15" t="s">
+      <c r="V15" t="s">
         <v>18</v>
       </c>
-      <c r="T15">
+      <c r="X15">
         <v>44</v>
       </c>
-      <c r="U15">
+      <c r="Y15">
         <v>45</v>
       </c>
-      <c r="V15">
+      <c r="Z15">
         <v>45</v>
       </c>
-      <c r="W15">
+      <c r="AA15">
+        <v>45</v>
+      </c>
+      <c r="AB15">
         <v>44</v>
       </c>
-      <c r="X15">
+      <c r="AC15">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1423,55 +1561,64 @@
         <v>36</v>
       </c>
       <c r="D16">
+        <v>38</v>
+      </c>
+      <c r="E16">
         <v>46</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>45</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>55</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>56</v>
       </c>
-      <c r="I16" t="s">
+      <c r="M16" t="s">
         <v>19</v>
       </c>
-      <c r="K16">
+      <c r="O16">
         <v>50</v>
       </c>
-      <c r="L16">
+      <c r="P16">
+        <v>39</v>
+      </c>
+      <c r="Q16">
         <v>52</v>
       </c>
-      <c r="M16">
+      <c r="R16">
         <v>34</v>
       </c>
-      <c r="N16">
+      <c r="S16">
         <v>55</v>
       </c>
-      <c r="O16">
+      <c r="T16">
         <v>57</v>
       </c>
-      <c r="R16" t="s">
+      <c r="V16" t="s">
         <v>19</v>
       </c>
-      <c r="T16">
+      <c r="X16">
         <v>51</v>
       </c>
-      <c r="U16">
+      <c r="Y16">
+        <v>38</v>
+      </c>
+      <c r="Z16">
         <v>49</v>
       </c>
-      <c r="V16">
+      <c r="AA16">
         <v>34</v>
       </c>
-      <c r="W16">
+      <c r="AB16">
         <v>54</v>
       </c>
-      <c r="X16">
+      <c r="AC16">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1485,49 +1632,58 @@
         <v>92</v>
       </c>
       <c r="F17">
+        <v>92</v>
+      </c>
+      <c r="G17">
         <v>90</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>91</v>
       </c>
-      <c r="I17" t="s">
+      <c r="M17" t="s">
         <v>20</v>
       </c>
-      <c r="K17">
+      <c r="O17">
         <v>89</v>
       </c>
-      <c r="L17">
+      <c r="P17">
         <v>92</v>
       </c>
-      <c r="M17">
+      <c r="Q17">
         <v>92</v>
       </c>
-      <c r="N17">
+      <c r="R17">
+        <v>92</v>
+      </c>
+      <c r="S17">
         <v>90</v>
       </c>
-      <c r="O17">
+      <c r="T17">
         <v>91</v>
       </c>
-      <c r="R17" t="s">
+      <c r="V17" t="s">
         <v>20</v>
       </c>
-      <c r="T17">
+      <c r="X17">
         <v>89</v>
       </c>
-      <c r="U17">
+      <c r="Y17">
+        <v>92</v>
+      </c>
+      <c r="Z17">
         <v>93</v>
       </c>
-      <c r="V17">
+      <c r="AA17">
         <v>92</v>
       </c>
-      <c r="W17">
+      <c r="AB17">
         <v>90</v>
       </c>
-      <c r="X17">
+      <c r="AC17">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1535,55 +1691,64 @@
         <v>41</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>51</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>36</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>44</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>50</v>
       </c>
-      <c r="I18" t="s">
+      <c r="M18" t="s">
         <v>21</v>
       </c>
-      <c r="K18">
+      <c r="O18">
         <v>37</v>
       </c>
-      <c r="L18">
+      <c r="P18">
+        <v>36</v>
+      </c>
+      <c r="Q18">
         <v>51</v>
       </c>
-      <c r="M18">
+      <c r="R18">
         <v>36</v>
       </c>
-      <c r="N18">
+      <c r="S18">
         <v>43</v>
       </c>
-      <c r="O18">
+      <c r="T18">
         <v>50</v>
       </c>
-      <c r="R18" t="s">
+      <c r="V18" t="s">
         <v>21</v>
       </c>
-      <c r="T18">
+      <c r="X18">
         <v>45</v>
       </c>
-      <c r="U18">
+      <c r="Y18">
+        <v>36</v>
+      </c>
+      <c r="Z18">
         <v>50</v>
       </c>
-      <c r="V18">
+      <c r="AA18">
         <v>36</v>
       </c>
-      <c r="W18">
+      <c r="AB18">
         <v>45</v>
       </c>
-      <c r="X18">
+      <c r="AC18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1594,52 +1759,61 @@
         <v>44</v>
       </c>
       <c r="E19">
+        <v>44</v>
+      </c>
+      <c r="F19">
         <v>36</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>49</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>47</v>
       </c>
-      <c r="I19" t="s">
+      <c r="M19" t="s">
         <v>22</v>
       </c>
-      <c r="K19">
+      <c r="O19">
         <v>45</v>
       </c>
-      <c r="L19">
+      <c r="P19">
+        <v>45</v>
+      </c>
+      <c r="Q19">
         <v>46</v>
       </c>
-      <c r="M19">
+      <c r="R19">
         <v>44</v>
       </c>
-      <c r="N19">
+      <c r="S19">
         <v>48</v>
       </c>
-      <c r="O19">
+      <c r="T19">
         <v>47</v>
       </c>
-      <c r="R19" t="s">
+      <c r="V19" t="s">
         <v>22</v>
       </c>
-      <c r="T19">
+      <c r="X19">
         <v>46</v>
       </c>
-      <c r="U19">
+      <c r="Y19">
+        <v>44</v>
+      </c>
+      <c r="Z19">
         <v>40</v>
       </c>
-      <c r="V19">
+      <c r="AA19">
         <v>41</v>
       </c>
-      <c r="W19">
+      <c r="AB19">
         <v>48</v>
       </c>
-      <c r="X19">
+      <c r="AC19">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1647,55 +1821,64 @@
         <v>58</v>
       </c>
       <c r="D20">
+        <v>60</v>
+      </c>
+      <c r="E20">
         <v>76</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>77</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>50</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>77</v>
       </c>
-      <c r="I20" t="s">
+      <c r="M20" t="s">
         <v>23</v>
       </c>
-      <c r="K20">
+      <c r="O20">
         <v>58</v>
       </c>
-      <c r="L20">
+      <c r="P20">
         <v>60</v>
       </c>
-      <c r="M20">
+      <c r="Q20">
+        <v>60</v>
+      </c>
+      <c r="R20">
         <v>78</v>
       </c>
-      <c r="N20">
+      <c r="S20">
         <v>39</v>
       </c>
-      <c r="O20">
+      <c r="T20">
         <v>77</v>
       </c>
-      <c r="R20" t="s">
+      <c r="V20" t="s">
         <v>23</v>
       </c>
-      <c r="T20">
+      <c r="X20">
         <v>58</v>
       </c>
-      <c r="U20">
+      <c r="Y20">
+        <v>61</v>
+      </c>
+      <c r="Z20">
         <v>72</v>
       </c>
-      <c r="V20">
+      <c r="AA20">
         <v>78</v>
       </c>
-      <c r="W20">
+      <c r="AB20">
         <v>47</v>
       </c>
-      <c r="X20">
+      <c r="AC20">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1703,55 +1886,64 @@
         <v>24</v>
       </c>
       <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
         <v>14</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>24</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>28</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>21</v>
       </c>
-      <c r="I21" t="s">
+      <c r="M21" t="s">
         <v>24</v>
       </c>
-      <c r="K21">
+      <c r="O21">
         <v>18</v>
       </c>
-      <c r="L21">
+      <c r="P21">
+        <v>22</v>
+      </c>
+      <c r="Q21">
         <v>14</v>
       </c>
-      <c r="M21">
+      <c r="R21">
         <v>24</v>
       </c>
-      <c r="N21">
+      <c r="S21">
         <v>27</v>
       </c>
-      <c r="O21">
+      <c r="T21">
         <v>22</v>
       </c>
-      <c r="R21" t="s">
+      <c r="V21" t="s">
         <v>24</v>
       </c>
-      <c r="T21">
+      <c r="X21">
         <v>19</v>
       </c>
-      <c r="U21">
+      <c r="Y21">
+        <v>22</v>
+      </c>
+      <c r="Z21">
         <v>14</v>
       </c>
-      <c r="V21">
+      <c r="AA21">
         <v>24</v>
       </c>
-      <c r="W21">
+      <c r="AB21">
         <v>27</v>
       </c>
-      <c r="X21">
+      <c r="AC21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1759,55 +1951,64 @@
         <v>33</v>
       </c>
       <c r="D22">
+        <v>36</v>
+      </c>
+      <c r="E22">
         <v>25</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>46</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>41</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>51</v>
       </c>
-      <c r="I22" t="s">
+      <c r="M22" t="s">
         <v>25</v>
       </c>
-      <c r="K22">
+      <c r="O22">
         <v>34</v>
       </c>
-      <c r="L22">
+      <c r="P22">
+        <v>36</v>
+      </c>
+      <c r="Q22">
         <v>28</v>
       </c>
-      <c r="M22">
+      <c r="R22">
         <v>43</v>
       </c>
-      <c r="N22">
+      <c r="S22">
         <v>38</v>
       </c>
-      <c r="O22">
+      <c r="T22">
         <v>48</v>
       </c>
-      <c r="R22" t="s">
+      <c r="V22" t="s">
         <v>25</v>
       </c>
-      <c r="T22">
+      <c r="X22">
         <v>30</v>
       </c>
-      <c r="U22">
+      <c r="Y22">
+        <v>36</v>
+      </c>
+      <c r="Z22">
         <v>33</v>
       </c>
-      <c r="V22">
+      <c r="AA22">
         <v>38</v>
       </c>
-      <c r="W22">
+      <c r="AB22">
         <v>38</v>
       </c>
-      <c r="X22">
+      <c r="AC22">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1815,55 +2016,64 @@
         <v>13</v>
       </c>
       <c r="D23">
+        <v>36</v>
+      </c>
+      <c r="E23">
         <v>13</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>31</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>14</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>18</v>
       </c>
-      <c r="I23" t="s">
+      <c r="M23" t="s">
         <v>26</v>
       </c>
-      <c r="K23">
+      <c r="O23">
         <v>13</v>
       </c>
-      <c r="L23">
+      <c r="P23">
+        <v>29</v>
+      </c>
+      <c r="Q23">
         <v>36</v>
       </c>
-      <c r="M23">
+      <c r="R23">
         <v>30</v>
       </c>
-      <c r="N23">
+      <c r="S23">
         <v>15</v>
       </c>
-      <c r="O23">
+      <c r="T23">
         <v>18</v>
       </c>
-      <c r="R23" t="s">
+      <c r="V23" t="s">
         <v>26</v>
       </c>
-      <c r="T23">
+      <c r="X23">
         <v>13</v>
       </c>
-      <c r="U23">
+      <c r="Y23">
+        <v>29</v>
+      </c>
+      <c r="Z23">
         <v>36</v>
       </c>
-      <c r="V23">
+      <c r="AA23">
         <v>30</v>
       </c>
-      <c r="W23">
+      <c r="AB23">
         <v>15</v>
       </c>
-      <c r="X23">
+      <c r="AC23">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1874,52 +2084,61 @@
         <v>41</v>
       </c>
       <c r="E24">
+        <v>41</v>
+      </c>
+      <c r="F24">
         <v>31</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>42</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>41</v>
       </c>
-      <c r="I24" t="s">
+      <c r="M24" t="s">
         <v>27</v>
       </c>
-      <c r="K24">
+      <c r="O24">
         <v>40</v>
       </c>
-      <c r="L24">
+      <c r="P24">
+        <v>41</v>
+      </c>
+      <c r="Q24">
         <v>75</v>
       </c>
-      <c r="M24">
+      <c r="R24">
         <v>40</v>
       </c>
-      <c r="N24">
+      <c r="S24">
         <v>42</v>
       </c>
-      <c r="O24">
+      <c r="T24">
         <v>41</v>
       </c>
-      <c r="R24" t="s">
+      <c r="V24" t="s">
         <v>27</v>
       </c>
-      <c r="T24">
+      <c r="X24">
         <v>40</v>
       </c>
-      <c r="U24">
+      <c r="Y24">
+        <v>41</v>
+      </c>
+      <c r="Z24">
         <v>73</v>
       </c>
-      <c r="V24">
+      <c r="AA24">
         <v>40</v>
       </c>
-      <c r="W24">
+      <c r="AB24">
         <v>42</v>
       </c>
-      <c r="X24">
+      <c r="AC24">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1927,55 +2146,64 @@
         <v>0</v>
       </c>
       <c r="D25">
+        <v>45</v>
+      </c>
+      <c r="E25">
         <v>28</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>26</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>35</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>62</v>
       </c>
-      <c r="I25" t="s">
+      <c r="M25" t="s">
         <v>28</v>
       </c>
-      <c r="K25">
+      <c r="O25">
         <v>28</v>
       </c>
-      <c r="L25">
+      <c r="P25">
+        <v>33</v>
+      </c>
+      <c r="Q25">
         <v>39</v>
       </c>
-      <c r="M25">
+      <c r="R25">
         <v>39</v>
       </c>
-      <c r="N25">
+      <c r="S25">
         <v>40</v>
       </c>
-      <c r="O25">
+      <c r="T25">
         <v>60</v>
       </c>
-      <c r="R25" t="s">
+      <c r="V25" t="s">
         <v>28</v>
       </c>
-      <c r="T25">
+      <c r="X25">
         <v>10</v>
       </c>
-      <c r="U25">
+      <c r="Y25">
+        <v>33</v>
+      </c>
+      <c r="Z25">
         <v>29</v>
       </c>
-      <c r="V25">
+      <c r="AA25">
         <v>28</v>
       </c>
-      <c r="W25">
+      <c r="AB25">
         <v>33</v>
       </c>
-      <c r="X25">
+      <c r="AC25">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1989,49 +2217,58 @@
         <v>42</v>
       </c>
       <c r="F26">
+        <v>42</v>
+      </c>
+      <c r="G26">
         <v>63</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>42</v>
       </c>
-      <c r="I26" t="s">
+      <c r="M26" t="s">
         <v>29</v>
       </c>
-      <c r="K26">
+      <c r="O26">
         <v>31</v>
       </c>
-      <c r="L26">
+      <c r="P26">
         <v>42</v>
       </c>
-      <c r="M26">
+      <c r="Q26">
         <v>42</v>
       </c>
-      <c r="N26">
+      <c r="R26">
+        <v>42</v>
+      </c>
+      <c r="S26">
         <v>53</v>
       </c>
-      <c r="O26">
+      <c r="T26">
         <v>42</v>
       </c>
-      <c r="R26" t="s">
+      <c r="V26" t="s">
         <v>29</v>
       </c>
-      <c r="T26">
+      <c r="X26">
         <v>31</v>
       </c>
-      <c r="U26">
+      <c r="Y26">
         <v>42</v>
       </c>
-      <c r="V26">
+      <c r="Z26">
         <v>42</v>
       </c>
-      <c r="W26">
+      <c r="AA26">
+        <v>42</v>
+      </c>
+      <c r="AB26">
         <v>53</v>
       </c>
-      <c r="X26">
+      <c r="AC26">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2039,55 +2276,64 @@
         <v>61</v>
       </c>
       <c r="D27">
+        <v>60</v>
+      </c>
+      <c r="E27">
         <v>62</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>61</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>65</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>62</v>
       </c>
-      <c r="I27" t="s">
+      <c r="M27" t="s">
         <v>30</v>
       </c>
-      <c r="K27">
+      <c r="O27">
         <v>61</v>
       </c>
-      <c r="L27">
+      <c r="P27">
+        <v>61</v>
+      </c>
+      <c r="Q27">
         <v>62</v>
       </c>
-      <c r="M27">
+      <c r="R27">
         <v>62</v>
       </c>
-      <c r="N27">
+      <c r="S27">
         <v>66</v>
       </c>
-      <c r="O27">
+      <c r="T27">
         <v>62</v>
       </c>
-      <c r="R27" t="s">
+      <c r="V27" t="s">
         <v>30</v>
       </c>
-      <c r="T27">
+      <c r="X27">
         <v>61</v>
       </c>
-      <c r="U27">
+      <c r="Y27">
+        <v>60</v>
+      </c>
+      <c r="Z27">
         <v>62</v>
       </c>
-      <c r="V27">
+      <c r="AA27">
         <v>61</v>
       </c>
-      <c r="W27">
+      <c r="AB27">
         <v>66</v>
       </c>
-      <c r="X27">
+      <c r="AC27">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2098,52 +2344,61 @@
         <v>29</v>
       </c>
       <c r="E28">
+        <v>29</v>
+      </c>
+      <c r="F28">
         <v>31</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>33</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>29</v>
       </c>
-      <c r="I28" t="s">
+      <c r="M28" t="s">
         <v>31</v>
       </c>
-      <c r="K28">
+      <c r="O28">
         <v>8</v>
       </c>
-      <c r="L28">
+      <c r="P28">
         <v>29</v>
       </c>
-      <c r="M28">
+      <c r="Q28">
         <v>29</v>
       </c>
-      <c r="N28">
+      <c r="R28">
+        <v>29</v>
+      </c>
+      <c r="S28">
         <v>33</v>
       </c>
-      <c r="O28">
+      <c r="T28">
         <v>28</v>
       </c>
-      <c r="R28" t="s">
+      <c r="V28" t="s">
         <v>31</v>
       </c>
-      <c r="T28">
+      <c r="X28">
         <v>24</v>
       </c>
-      <c r="U28">
+      <c r="Y28">
         <v>29</v>
       </c>
-      <c r="V28">
+      <c r="Z28">
         <v>29</v>
       </c>
-      <c r="W28">
+      <c r="AA28">
+        <v>29</v>
+      </c>
+      <c r="AB28">
         <v>33</v>
       </c>
-      <c r="X28">
+      <c r="AC28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2151,55 +2406,64 @@
         <v>46</v>
       </c>
       <c r="D29">
+        <v>24</v>
+      </c>
+      <c r="E29">
         <v>45</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>34</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>38</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>59</v>
       </c>
-      <c r="I29" t="s">
+      <c r="M29" t="s">
         <v>32</v>
       </c>
-      <c r="K29">
+      <c r="O29">
         <v>48</v>
       </c>
-      <c r="L29">
+      <c r="P29">
+        <v>47</v>
+      </c>
+      <c r="Q29">
         <v>43</v>
       </c>
-      <c r="M29">
+      <c r="R29">
         <v>49</v>
       </c>
-      <c r="N29">
+      <c r="S29">
         <v>13</v>
       </c>
-      <c r="O29">
+      <c r="T29">
         <v>63</v>
       </c>
-      <c r="R29" t="s">
+      <c r="V29" t="s">
         <v>32</v>
       </c>
-      <c r="T29">
+      <c r="X29">
         <v>51</v>
       </c>
-      <c r="U29">
+      <c r="Y29">
+        <v>43</v>
+      </c>
+      <c r="Z29">
         <v>39</v>
       </c>
-      <c r="V29">
+      <c r="AA29">
         <v>44</v>
       </c>
-      <c r="W29">
+      <c r="AB29">
         <v>11</v>
       </c>
-      <c r="X29">
+      <c r="AC29">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2207,55 +2471,64 @@
         <v>34</v>
       </c>
       <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
         <v>34</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>36</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>37</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>35</v>
       </c>
-      <c r="I30" t="s">
+      <c r="M30" t="s">
         <v>33</v>
       </c>
-      <c r="K30">
+      <c r="O30">
         <v>34</v>
       </c>
-      <c r="L30">
+      <c r="P30">
+        <v>20</v>
+      </c>
+      <c r="Q30">
         <v>33</v>
       </c>
-      <c r="M30">
+      <c r="R30">
         <v>34</v>
       </c>
-      <c r="N30">
+      <c r="S30">
         <v>36</v>
       </c>
-      <c r="O30">
+      <c r="T30">
         <v>35</v>
       </c>
-      <c r="R30" t="s">
+      <c r="V30" t="s">
         <v>33</v>
       </c>
-      <c r="T30">
+      <c r="X30">
         <v>34</v>
       </c>
-      <c r="U30">
+      <c r="Y30">
         <v>20</v>
       </c>
-      <c r="V30">
+      <c r="Z30">
+        <v>20</v>
+      </c>
+      <c r="AA30">
         <v>35</v>
       </c>
-      <c r="W30">
+      <c r="AB30">
         <v>36</v>
       </c>
-      <c r="X30">
+      <c r="AC30">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2263,55 +2536,64 @@
         <v>10</v>
       </c>
       <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31">
         <v>18</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>17</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>15</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>25</v>
       </c>
-      <c r="I31" t="s">
+      <c r="M31" t="s">
         <v>34</v>
       </c>
-      <c r="K31">
+      <c r="O31">
         <v>0</v>
       </c>
-      <c r="L31">
+      <c r="P31">
+        <v>18</v>
+      </c>
+      <c r="Q31">
         <v>20</v>
       </c>
-      <c r="M31">
+      <c r="R31">
         <v>19</v>
       </c>
-      <c r="N31">
+      <c r="S31">
         <v>9</v>
       </c>
-      <c r="O31">
+      <c r="T31">
         <v>25</v>
       </c>
-      <c r="R31" t="s">
+      <c r="V31" t="s">
         <v>34</v>
       </c>
-      <c r="T31">
+      <c r="X31">
         <v>14</v>
       </c>
-      <c r="U31">
+      <c r="Y31">
+        <v>18</v>
+      </c>
+      <c r="Z31">
         <v>19</v>
       </c>
-      <c r="V31">
+      <c r="AA31">
         <v>19</v>
       </c>
-      <c r="W31">
+      <c r="AB31">
         <v>10</v>
       </c>
-      <c r="X31">
+      <c r="AC31">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2319,55 +2601,64 @@
         <v>18</v>
       </c>
       <c r="D32">
+        <v>43</v>
+      </c>
+      <c r="E32">
         <v>28</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>48</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>12</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>43</v>
       </c>
-      <c r="I32" t="s">
+      <c r="M32" t="s">
         <v>35</v>
       </c>
-      <c r="K32">
+      <c r="O32">
         <v>36</v>
       </c>
-      <c r="L32">
+      <c r="P32">
+        <v>39</v>
+      </c>
+      <c r="Q32">
         <v>38</v>
       </c>
-      <c r="M32">
+      <c r="R32">
         <v>40</v>
       </c>
-      <c r="N32">
+      <c r="S32">
         <v>6</v>
       </c>
-      <c r="O32">
+      <c r="T32">
         <v>48</v>
       </c>
-      <c r="R32" t="s">
+      <c r="V32" t="s">
         <v>35</v>
       </c>
-      <c r="T32">
+      <c r="X32">
         <v>14</v>
       </c>
-      <c r="U32">
+      <c r="Y32">
+        <v>50</v>
+      </c>
+      <c r="Z32">
         <v>36</v>
       </c>
-      <c r="V32">
+      <c r="AA32">
         <v>42</v>
       </c>
-      <c r="W32">
+      <c r="AB32">
         <v>6</v>
       </c>
-      <c r="X32">
+      <c r="AC32">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2381,49 +2672,58 @@
         <v>40</v>
       </c>
       <c r="F33">
+        <v>40</v>
+      </c>
+      <c r="G33">
         <v>31</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>40</v>
       </c>
-      <c r="I33" t="s">
+      <c r="M33" t="s">
         <v>36</v>
       </c>
-      <c r="K33">
+      <c r="O33">
         <v>31</v>
       </c>
-      <c r="L33">
+      <c r="P33">
         <v>40</v>
       </c>
-      <c r="M33">
+      <c r="Q33">
         <v>40</v>
       </c>
-      <c r="N33">
+      <c r="R33">
+        <v>40</v>
+      </c>
+      <c r="S33">
         <v>31</v>
       </c>
-      <c r="O33">
+      <c r="T33">
         <v>40</v>
       </c>
-      <c r="R33" t="s">
+      <c r="V33" t="s">
         <v>36</v>
       </c>
-      <c r="T33">
+      <c r="X33">
         <v>31</v>
       </c>
-      <c r="U33">
+      <c r="Y33">
         <v>40</v>
       </c>
-      <c r="V33">
+      <c r="Z33">
         <v>40</v>
       </c>
-      <c r="W33">
+      <c r="AA33">
+        <v>40</v>
+      </c>
+      <c r="AB33">
         <v>31</v>
       </c>
-      <c r="X33">
+      <c r="AC33">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2431,55 +2731,64 @@
         <v>27</v>
       </c>
       <c r="D34">
+        <v>25</v>
+      </c>
+      <c r="E34">
         <v>20</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>25</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>31</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>53</v>
       </c>
-      <c r="I34" t="s">
+      <c r="M34" t="s">
         <v>37</v>
       </c>
-      <c r="K34">
+      <c r="O34">
         <v>22</v>
       </c>
-      <c r="L34">
+      <c r="P34">
+        <v>25</v>
+      </c>
+      <c r="Q34">
         <v>20</v>
       </c>
-      <c r="M34">
+      <c r="R34">
         <v>25</v>
       </c>
-      <c r="N34">
+      <c r="S34">
         <v>26</v>
       </c>
-      <c r="O34">
+      <c r="T34">
         <v>53</v>
       </c>
-      <c r="R34" t="s">
+      <c r="V34" t="s">
         <v>37</v>
       </c>
-      <c r="T34">
+      <c r="X34">
         <v>27</v>
       </c>
-      <c r="U34">
+      <c r="Y34">
+        <v>25</v>
+      </c>
+      <c r="Z34">
         <v>20</v>
       </c>
-      <c r="V34">
+      <c r="AA34">
         <v>25</v>
       </c>
-      <c r="W34">
+      <c r="AB34">
         <v>26</v>
       </c>
-      <c r="X34">
+      <c r="AC34">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2487,55 +2796,64 @@
         <v>34</v>
       </c>
       <c r="D35">
+        <v>36</v>
+      </c>
+      <c r="E35">
         <v>9</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>14</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>22</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>35</v>
       </c>
-      <c r="I35" t="s">
+      <c r="M35" t="s">
         <v>38</v>
       </c>
-      <c r="K35">
+      <c r="O35">
         <v>39</v>
       </c>
-      <c r="L35">
+      <c r="P35">
+        <v>40</v>
+      </c>
+      <c r="Q35">
         <v>29</v>
       </c>
-      <c r="M35">
+      <c r="R35">
         <v>11</v>
       </c>
-      <c r="N35">
+      <c r="S35">
         <v>25</v>
-      </c>
-      <c r="O35">
-        <v>29</v>
-      </c>
-      <c r="R35" t="s">
-        <v>38</v>
       </c>
       <c r="T35">
         <v>29</v>
       </c>
-      <c r="U35">
+      <c r="V35" t="s">
+        <v>38</v>
+      </c>
+      <c r="X35">
+        <v>29</v>
+      </c>
+      <c r="Y35">
         <v>37</v>
       </c>
-      <c r="V35">
+      <c r="Z35">
+        <v>37</v>
+      </c>
+      <c r="AA35">
         <v>8</v>
       </c>
-      <c r="W35">
+      <c r="AB35">
         <v>25</v>
       </c>
-      <c r="X35">
+      <c r="AC35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2543,55 +2861,64 @@
         <v>14</v>
       </c>
       <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36">
         <v>18</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>17</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>19</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>18</v>
       </c>
-      <c r="I36" t="s">
+      <c r="M36" t="s">
         <v>39</v>
       </c>
-      <c r="K36">
+      <c r="O36">
         <v>16</v>
       </c>
-      <c r="L36">
+      <c r="P36">
+        <v>14</v>
+      </c>
+      <c r="Q36">
         <v>18</v>
       </c>
-      <c r="M36">
+      <c r="R36">
         <v>17</v>
       </c>
-      <c r="N36">
+      <c r="S36">
         <v>19</v>
       </c>
-      <c r="O36">
+      <c r="T36">
         <v>18</v>
       </c>
-      <c r="R36" t="s">
+      <c r="V36" t="s">
         <v>39</v>
       </c>
-      <c r="T36">
+      <c r="X36">
         <v>14</v>
       </c>
-      <c r="U36">
+      <c r="Y36">
+        <v>17</v>
+      </c>
+      <c r="Z36">
         <v>18</v>
       </c>
-      <c r="V36">
+      <c r="AA36">
         <v>17</v>
       </c>
-      <c r="W36">
+      <c r="AB36">
         <v>19</v>
       </c>
-      <c r="X36">
+      <c r="AC36">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2599,55 +2926,64 @@
         <v>62</v>
       </c>
       <c r="D37">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E37">
         <v>55</v>
       </c>
       <c r="F37">
+        <v>55</v>
+      </c>
+      <c r="G37">
         <v>37</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>56</v>
       </c>
-      <c r="I37" t="s">
+      <c r="M37" t="s">
         <v>40</v>
-      </c>
-      <c r="K37">
-        <v>56</v>
-      </c>
-      <c r="L37">
-        <v>50</v>
-      </c>
-      <c r="M37">
-        <v>59</v>
-      </c>
-      <c r="N37">
-        <v>27</v>
       </c>
       <c r="O37">
         <v>56</v>
       </c>
-      <c r="R37" t="s">
+      <c r="P37">
+        <v>67</v>
+      </c>
+      <c r="Q37">
+        <v>50</v>
+      </c>
+      <c r="R37">
+        <v>59</v>
+      </c>
+      <c r="S37">
+        <v>27</v>
+      </c>
+      <c r="T37">
+        <v>56</v>
+      </c>
+      <c r="V37" t="s">
         <v>40</v>
       </c>
-      <c r="T37">
+      <c r="X37">
         <v>55</v>
       </c>
-      <c r="U37">
+      <c r="Y37">
+        <v>58</v>
+      </c>
+      <c r="Z37">
         <v>54</v>
       </c>
-      <c r="V37">
+      <c r="AA37">
         <v>55</v>
       </c>
-      <c r="W37">
+      <c r="AB37">
         <v>37</v>
       </c>
-      <c r="X37">
+      <c r="AC37">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2655,55 +2991,64 @@
         <v>5</v>
       </c>
       <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
         <v>7</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>8</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>5</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>7</v>
       </c>
-      <c r="I38" t="s">
+      <c r="M38" t="s">
         <v>41</v>
       </c>
-      <c r="K38">
+      <c r="O38">
         <v>5</v>
       </c>
-      <c r="L38">
+      <c r="P38">
+        <v>6</v>
+      </c>
+      <c r="Q38">
         <v>9</v>
       </c>
-      <c r="M38">
+      <c r="R38">
         <v>7</v>
       </c>
-      <c r="N38">
+      <c r="S38">
         <v>5</v>
       </c>
-      <c r="O38">
+      <c r="T38">
         <v>8</v>
       </c>
-      <c r="R38" t="s">
+      <c r="V38" t="s">
         <v>41</v>
       </c>
-      <c r="T38">
+      <c r="X38">
         <v>5</v>
       </c>
-      <c r="U38">
+      <c r="Y38">
+        <v>9</v>
+      </c>
+      <c r="Z38">
         <v>19</v>
       </c>
-      <c r="V38">
+      <c r="AA38">
         <v>6</v>
       </c>
-      <c r="W38">
+      <c r="AB38">
         <v>5</v>
       </c>
-      <c r="X38">
+      <c r="AC38">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2711,55 +3056,64 @@
         <v>8</v>
       </c>
       <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
         <v>46</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>42</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>39</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>58</v>
       </c>
-      <c r="I39" t="s">
+      <c r="M39" t="s">
         <v>42</v>
       </c>
-      <c r="K39">
+      <c r="O39">
         <v>59</v>
       </c>
-      <c r="L39">
+      <c r="P39">
+        <v>10</v>
+      </c>
+      <c r="Q39">
         <v>42</v>
       </c>
-      <c r="M39">
+      <c r="R39">
         <v>46</v>
       </c>
-      <c r="N39">
+      <c r="S39">
         <v>44</v>
       </c>
-      <c r="O39">
+      <c r="T39">
         <v>57</v>
       </c>
-      <c r="R39" t="s">
+      <c r="V39" t="s">
         <v>42</v>
       </c>
-      <c r="T39">
+      <c r="X39">
         <v>47</v>
       </c>
-      <c r="U39">
+      <c r="Y39">
+        <v>10</v>
+      </c>
+      <c r="Z39">
         <v>41</v>
       </c>
-      <c r="V39">
+      <c r="AA39">
         <v>59</v>
       </c>
-      <c r="W39">
+      <c r="AB39">
         <v>46</v>
       </c>
-      <c r="X39">
+      <c r="AC39">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2767,55 +3121,64 @@
         <v>40</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E40">
         <v>29</v>
       </c>
       <c r="F40">
+        <v>29</v>
+      </c>
+      <c r="G40">
         <v>25</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>41</v>
       </c>
-      <c r="I40" t="s">
+      <c r="M40" t="s">
         <v>43</v>
       </c>
-      <c r="K40">
+      <c r="O40">
         <v>30</v>
       </c>
-      <c r="L40">
+      <c r="P40">
+        <v>41</v>
+      </c>
+      <c r="Q40">
         <v>35</v>
       </c>
-      <c r="M40">
+      <c r="R40">
         <v>19</v>
       </c>
-      <c r="N40">
+      <c r="S40">
         <v>32</v>
       </c>
-      <c r="O40">
+      <c r="T40">
         <v>45</v>
       </c>
-      <c r="R40" t="s">
+      <c r="V40" t="s">
         <v>43</v>
       </c>
-      <c r="T40">
+      <c r="X40">
         <v>4</v>
       </c>
-      <c r="U40">
+      <c r="Y40">
+        <v>44</v>
+      </c>
+      <c r="Z40">
         <v>32</v>
       </c>
-      <c r="V40">
+      <c r="AA40">
         <v>19</v>
       </c>
-      <c r="W40">
+      <c r="AB40">
         <v>29</v>
       </c>
-      <c r="X40">
+      <c r="AC40">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2823,55 +3186,64 @@
         <v>34</v>
       </c>
       <c r="D41">
+        <v>65</v>
+      </c>
+      <c r="E41">
         <v>32</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>56</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>62</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>71</v>
       </c>
-      <c r="I41" t="s">
+      <c r="M41" t="s">
         <v>44</v>
       </c>
-      <c r="K41">
+      <c r="O41">
         <v>0</v>
       </c>
-      <c r="L41">
+      <c r="P41">
+        <v>60</v>
+      </c>
+      <c r="Q41">
         <v>31</v>
       </c>
-      <c r="M41">
+      <c r="R41">
         <v>62</v>
       </c>
-      <c r="N41">
+      <c r="S41">
         <v>60</v>
       </c>
-      <c r="O41">
+      <c r="T41">
         <v>70</v>
       </c>
-      <c r="R41" t="s">
+      <c r="V41" t="s">
         <v>44</v>
       </c>
-      <c r="T41">
+      <c r="X41">
         <v>35</v>
       </c>
-      <c r="U41">
+      <c r="Y41">
+        <v>68</v>
+      </c>
+      <c r="Z41">
         <v>32</v>
       </c>
-      <c r="V41">
+      <c r="AA41">
         <v>56</v>
       </c>
-      <c r="W41">
+      <c r="AB41">
         <v>50</v>
       </c>
-      <c r="X41">
+      <c r="AC41">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2879,55 +3251,64 @@
         <v>66</v>
       </c>
       <c r="D42">
+        <v>66</v>
+      </c>
+      <c r="E42">
         <v>67</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>68</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>57</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>71</v>
       </c>
-      <c r="I42" t="s">
+      <c r="M42" t="s">
         <v>45</v>
       </c>
-      <c r="K42">
+      <c r="O42">
         <v>58</v>
       </c>
-      <c r="L42">
+      <c r="P42">
+        <v>65</v>
+      </c>
+      <c r="Q42">
         <v>62</v>
       </c>
-      <c r="M42">
+      <c r="R42">
         <v>68</v>
       </c>
-      <c r="N42">
+      <c r="S42">
         <v>27</v>
-      </c>
-      <c r="O42">
-        <v>70</v>
-      </c>
-      <c r="R42" t="s">
-        <v>45</v>
       </c>
       <c r="T42">
         <v>70</v>
       </c>
-      <c r="U42">
-        <v>64</v>
-      </c>
-      <c r="V42">
-        <v>67</v>
-      </c>
-      <c r="W42">
-        <v>27</v>
+      <c r="V42" t="s">
+        <v>45</v>
       </c>
       <c r="X42">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y42">
+        <v>70</v>
+      </c>
+      <c r="Z42">
+        <v>64</v>
+      </c>
+      <c r="AA42">
+        <v>67</v>
+      </c>
+      <c r="AB42">
+        <v>27</v>
+      </c>
+      <c r="AC42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2935,55 +3316,64 @@
         <v>43</v>
       </c>
       <c r="D43">
+        <v>31</v>
+      </c>
+      <c r="E43">
         <v>36</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>40</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>32</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>47</v>
       </c>
-      <c r="I43" t="s">
+      <c r="M43" t="s">
         <v>46</v>
       </c>
-      <c r="K43">
+      <c r="O43">
         <v>43</v>
       </c>
-      <c r="L43">
+      <c r="P43">
+        <v>26</v>
+      </c>
+      <c r="Q43">
         <v>38</v>
       </c>
-      <c r="M43">
+      <c r="R43">
         <v>43</v>
       </c>
-      <c r="N43">
+      <c r="S43">
         <v>34</v>
       </c>
-      <c r="O43">
+      <c r="T43">
         <v>45</v>
       </c>
-      <c r="R43" t="s">
+      <c r="V43" t="s">
         <v>46</v>
       </c>
-      <c r="T43">
+      <c r="X43">
         <v>44</v>
       </c>
-      <c r="U43">
+      <c r="Y43">
         <v>40</v>
       </c>
-      <c r="V43">
+      <c r="Z43">
+        <v>40</v>
+      </c>
+      <c r="AA43">
         <v>41</v>
       </c>
-      <c r="W43">
+      <c r="AB43">
         <v>24</v>
       </c>
-      <c r="X43">
+      <c r="AC43">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2991,55 +3381,64 @@
         <v>13</v>
       </c>
       <c r="D44">
+        <v>13</v>
+      </c>
+      <c r="E44">
         <v>12</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>13</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>14</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>13</v>
       </c>
-      <c r="I44" t="s">
+      <c r="M44" t="s">
         <v>47</v>
-      </c>
-      <c r="K44">
-        <v>13</v>
-      </c>
-      <c r="L44">
-        <v>12</v>
-      </c>
-      <c r="M44">
-        <v>13</v>
-      </c>
-      <c r="N44">
-        <v>14</v>
       </c>
       <c r="O44">
         <v>13</v>
       </c>
-      <c r="R44" t="s">
-        <v>47</v>
+      <c r="P44">
+        <v>13</v>
+      </c>
+      <c r="Q44">
+        <v>12</v>
+      </c>
+      <c r="R44">
+        <v>13</v>
+      </c>
+      <c r="S44">
+        <v>14</v>
       </c>
       <c r="T44">
         <v>13</v>
       </c>
-      <c r="U44">
-        <v>13</v>
-      </c>
-      <c r="V44">
-        <v>13</v>
-      </c>
-      <c r="W44">
-        <v>13</v>
+      <c r="V44" t="s">
+        <v>47</v>
       </c>
       <c r="X44">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y44">
+        <v>13</v>
+      </c>
+      <c r="Z44">
+        <v>13</v>
+      </c>
+      <c r="AA44">
+        <v>13</v>
+      </c>
+      <c r="AB44">
+        <v>13</v>
+      </c>
+      <c r="AC44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -3053,49 +3452,58 @@
         <v>32</v>
       </c>
       <c r="F45">
+        <v>32</v>
+      </c>
+      <c r="G45">
         <v>52</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>32</v>
       </c>
-      <c r="I45" t="s">
+      <c r="M45" t="s">
         <v>48</v>
       </c>
-      <c r="K45">
+      <c r="O45">
         <v>26</v>
       </c>
-      <c r="L45">
+      <c r="P45">
         <v>32</v>
       </c>
-      <c r="M45">
+      <c r="Q45">
         <v>32</v>
       </c>
-      <c r="N45">
+      <c r="R45">
+        <v>32</v>
+      </c>
+      <c r="S45">
         <v>55</v>
       </c>
-      <c r="O45">
+      <c r="T45">
         <v>32</v>
       </c>
-      <c r="R45" t="s">
+      <c r="V45" t="s">
         <v>48</v>
       </c>
-      <c r="T45">
+      <c r="X45">
         <v>26</v>
       </c>
-      <c r="U45">
+      <c r="Y45">
         <v>32</v>
       </c>
-      <c r="V45">
+      <c r="Z45">
         <v>32</v>
       </c>
-      <c r="W45">
+      <c r="AA45">
+        <v>32</v>
+      </c>
+      <c r="AB45">
         <v>46</v>
       </c>
-      <c r="X45">
+      <c r="AC45">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -3109,49 +3517,58 @@
         <v>27</v>
       </c>
       <c r="F46">
+        <v>27</v>
+      </c>
+      <c r="G46">
         <v>28</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>27</v>
       </c>
-      <c r="I46" t="s">
+      <c r="M46" t="s">
         <v>49</v>
       </c>
-      <c r="K46">
+      <c r="O46">
         <v>25</v>
       </c>
-      <c r="L46">
+      <c r="P46">
+        <v>27</v>
+      </c>
+      <c r="Q46">
         <v>25</v>
       </c>
-      <c r="M46">
+      <c r="R46">
         <v>27</v>
       </c>
-      <c r="N46">
+      <c r="S46">
         <v>30</v>
-      </c>
-      <c r="O46">
-        <v>27</v>
-      </c>
-      <c r="R46" t="s">
-        <v>49</v>
       </c>
       <c r="T46">
         <v>27</v>
       </c>
-      <c r="U46">
-        <v>27</v>
-      </c>
-      <c r="V46">
-        <v>27</v>
-      </c>
-      <c r="W46">
-        <v>30</v>
+      <c r="V46" t="s">
+        <v>49</v>
       </c>
       <c r="X46">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y46">
+        <v>27</v>
+      </c>
+      <c r="Z46">
+        <v>27</v>
+      </c>
+      <c r="AA46">
+        <v>27</v>
+      </c>
+      <c r="AB46">
+        <v>30</v>
+      </c>
+      <c r="AC46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -3159,55 +3576,64 @@
         <v>11</v>
       </c>
       <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
         <v>7</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>12</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>5</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>8</v>
       </c>
-      <c r="I47" t="s">
+      <c r="M47" t="s">
         <v>50</v>
       </c>
-      <c r="K47">
+      <c r="O47">
         <v>9</v>
       </c>
-      <c r="L47">
+      <c r="P47">
         <v>3</v>
       </c>
-      <c r="M47">
+      <c r="Q47">
+        <v>3</v>
+      </c>
+      <c r="R47">
         <v>5</v>
       </c>
-      <c r="N47">
+      <c r="S47">
         <v>2</v>
       </c>
-      <c r="O47">
+      <c r="T47">
         <v>8</v>
       </c>
-      <c r="R47" t="s">
+      <c r="V47" t="s">
         <v>50</v>
       </c>
-      <c r="T47">
+      <c r="X47">
         <v>10</v>
       </c>
-      <c r="U47">
+      <c r="Y47">
+        <v>3</v>
+      </c>
+      <c r="Z47">
         <v>5</v>
       </c>
-      <c r="V47">
+      <c r="AA47">
         <v>5</v>
       </c>
-      <c r="W47">
+      <c r="AB47">
         <v>5</v>
       </c>
-      <c r="X47">
+      <c r="AC47">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -3215,55 +3641,64 @@
         <v>0</v>
       </c>
       <c r="D48">
+        <v>18</v>
+      </c>
+      <c r="E48">
         <v>17</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>15</v>
-      </c>
-      <c r="F48">
-        <v>18</v>
       </c>
       <c r="G48">
         <v>18</v>
       </c>
-      <c r="I48" t="s">
+      <c r="H48">
+        <v>18</v>
+      </c>
+      <c r="M48" t="s">
         <v>51</v>
       </c>
-      <c r="K48">
+      <c r="O48">
         <v>16</v>
       </c>
-      <c r="L48">
+      <c r="P48">
+        <v>19</v>
+      </c>
+      <c r="Q48">
         <v>17</v>
       </c>
-      <c r="M48">
+      <c r="R48">
         <v>17</v>
       </c>
-      <c r="N48">
+      <c r="S48">
         <v>17</v>
       </c>
-      <c r="O48">
+      <c r="T48">
         <v>17</v>
       </c>
-      <c r="R48" t="s">
+      <c r="V48" t="s">
         <v>51</v>
       </c>
-      <c r="T48">
+      <c r="X48">
         <v>15</v>
       </c>
-      <c r="U48">
+      <c r="Y48">
+        <v>18</v>
+      </c>
+      <c r="Z48">
         <v>15</v>
       </c>
-      <c r="V48">
+      <c r="AA48">
         <v>17</v>
       </c>
-      <c r="W48">
+      <c r="AB48">
         <v>16</v>
       </c>
-      <c r="X48">
+      <c r="AC48">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -3271,55 +3706,64 @@
         <v>66</v>
       </c>
       <c r="D49">
+        <v>58</v>
+      </c>
+      <c r="E49">
         <v>69</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>58</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>74</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>73</v>
       </c>
-      <c r="I49" t="s">
+      <c r="M49" t="s">
         <v>52</v>
       </c>
-      <c r="K49">
+      <c r="O49">
         <v>66</v>
       </c>
-      <c r="L49">
+      <c r="P49">
+        <v>58</v>
+      </c>
+      <c r="Q49">
         <v>69</v>
       </c>
-      <c r="M49">
+      <c r="R49">
         <v>58</v>
       </c>
-      <c r="N49">
+      <c r="S49">
         <v>70</v>
       </c>
-      <c r="O49">
+      <c r="T49">
         <v>73</v>
       </c>
-      <c r="R49" t="s">
+      <c r="V49" t="s">
         <v>52</v>
       </c>
-      <c r="T49">
+      <c r="X49">
         <v>0</v>
       </c>
-      <c r="U49">
+      <c r="Y49">
+        <v>58</v>
+      </c>
+      <c r="Z49">
         <v>69</v>
       </c>
-      <c r="V49">
+      <c r="AA49">
         <v>58</v>
       </c>
-      <c r="W49">
+      <c r="AB49">
         <v>70</v>
       </c>
-      <c r="X49">
+      <c r="AC49">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -3327,55 +3771,64 @@
         <v>51</v>
       </c>
       <c r="D50">
+        <v>54</v>
+      </c>
+      <c r="E50">
         <v>50</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>53</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>51</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>53</v>
       </c>
-      <c r="I50" t="s">
+      <c r="M50" t="s">
         <v>53</v>
-      </c>
-      <c r="K50">
-        <v>53</v>
-      </c>
-      <c r="L50">
-        <v>50</v>
-      </c>
-      <c r="M50">
-        <v>50</v>
-      </c>
-      <c r="N50">
-        <v>50</v>
       </c>
       <c r="O50">
         <v>53</v>
       </c>
-      <c r="R50" t="s">
+      <c r="P50">
+        <v>54</v>
+      </c>
+      <c r="Q50">
+        <v>50</v>
+      </c>
+      <c r="R50">
+        <v>50</v>
+      </c>
+      <c r="S50">
+        <v>50</v>
+      </c>
+      <c r="T50">
         <v>53</v>
       </c>
-      <c r="T50">
+      <c r="V50" t="s">
+        <v>53</v>
+      </c>
+      <c r="X50">
         <v>38</v>
       </c>
-      <c r="U50">
+      <c r="Y50">
+        <v>54</v>
+      </c>
+      <c r="Z50">
         <v>52</v>
       </c>
-      <c r="V50">
+      <c r="AA50">
         <v>53</v>
       </c>
-      <c r="W50">
+      <c r="AB50">
         <v>51</v>
       </c>
-      <c r="X50">
+      <c r="AC50">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -3383,55 +3836,64 @@
         <v>58</v>
       </c>
       <c r="D51">
+        <v>58</v>
+      </c>
+      <c r="E51">
         <v>63</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>56</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>69</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>63</v>
       </c>
-      <c r="I51" t="s">
+      <c r="M51" t="s">
         <v>54</v>
       </c>
-      <c r="K51">
+      <c r="O51">
         <v>60</v>
       </c>
-      <c r="L51">
+      <c r="P51">
+        <v>58</v>
+      </c>
+      <c r="Q51">
         <v>63</v>
       </c>
-      <c r="M51">
+      <c r="R51">
         <v>36</v>
       </c>
-      <c r="N51">
+      <c r="S51">
         <v>68</v>
       </c>
-      <c r="O51">
+      <c r="T51">
         <v>63</v>
       </c>
-      <c r="R51" t="s">
+      <c r="V51" t="s">
         <v>54</v>
       </c>
-      <c r="T51">
+      <c r="X51">
         <v>58</v>
       </c>
-      <c r="U51">
+      <c r="Y51">
+        <v>58</v>
+      </c>
+      <c r="Z51">
         <v>61</v>
       </c>
-      <c r="V51">
+      <c r="AA51">
         <v>53</v>
       </c>
-      <c r="W51">
+      <c r="AB51">
         <v>66</v>
       </c>
-      <c r="X51">
+      <c r="AC51">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -3439,55 +3901,64 @@
         <v>43</v>
       </c>
       <c r="D52">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E52">
         <v>70</v>
       </c>
       <c r="F52">
+        <v>70</v>
+      </c>
+      <c r="G52">
         <v>69</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>71</v>
       </c>
-      <c r="I52" t="s">
+      <c r="M52" t="s">
         <v>55</v>
       </c>
-      <c r="K52">
+      <c r="O52">
         <v>18</v>
       </c>
-      <c r="L52">
+      <c r="P52">
+        <v>67</v>
+      </c>
+      <c r="Q52">
         <v>70</v>
       </c>
-      <c r="M52">
+      <c r="R52">
         <v>70</v>
       </c>
-      <c r="N52">
+      <c r="S52">
         <v>70</v>
       </c>
-      <c r="O52">
+      <c r="T52">
         <v>70</v>
       </c>
-      <c r="R52" t="s">
+      <c r="V52" t="s">
         <v>55</v>
       </c>
-      <c r="T52">
+      <c r="X52">
         <v>56</v>
       </c>
-      <c r="U52">
+      <c r="Y52">
+        <v>68</v>
+      </c>
+      <c r="Z52">
         <v>67</v>
       </c>
-      <c r="V52">
+      <c r="AA52">
         <v>69</v>
       </c>
-      <c r="W52">
+      <c r="AB52">
         <v>71</v>
       </c>
-      <c r="X52">
+      <c r="AC52">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -3495,55 +3966,64 @@
         <v>86</v>
       </c>
       <c r="D53">
+        <v>55</v>
+      </c>
+      <c r="E53">
         <v>59</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>55</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>81</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>69</v>
       </c>
-      <c r="I53" t="s">
+      <c r="M53" t="s">
         <v>56</v>
       </c>
-      <c r="K53">
+      <c r="O53">
         <v>86</v>
       </c>
-      <c r="L53">
+      <c r="P53">
+        <v>55</v>
+      </c>
+      <c r="Q53">
         <v>57</v>
       </c>
-      <c r="M53">
+      <c r="R53">
         <v>55</v>
       </c>
-      <c r="N53">
+      <c r="S53">
         <v>80</v>
       </c>
-      <c r="O53">
+      <c r="T53">
         <v>76</v>
       </c>
-      <c r="R53" t="s">
+      <c r="V53" t="s">
         <v>56</v>
       </c>
-      <c r="T53">
+      <c r="X53">
         <v>73</v>
       </c>
-      <c r="U53">
+      <c r="Y53">
+        <v>55</v>
+      </c>
+      <c r="Z53">
         <v>59</v>
       </c>
-      <c r="V53">
+      <c r="AA53">
         <v>55</v>
       </c>
-      <c r="W53">
+      <c r="AB53">
         <v>74</v>
       </c>
-      <c r="X53">
+      <c r="AC53">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -3551,55 +4031,64 @@
         <v>43</v>
       </c>
       <c r="D54">
+        <v>56</v>
+      </c>
+      <c r="E54">
         <v>64</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>50</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>69</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>75</v>
       </c>
-      <c r="I54" t="s">
+      <c r="M54" t="s">
         <v>57</v>
       </c>
-      <c r="K54">
+      <c r="O54">
         <v>66</v>
       </c>
-      <c r="L54">
+      <c r="P54">
+        <v>45</v>
+      </c>
+      <c r="Q54">
         <v>66</v>
       </c>
-      <c r="M54">
+      <c r="R54">
         <v>44</v>
       </c>
-      <c r="N54">
+      <c r="S54">
         <v>66</v>
       </c>
-      <c r="O54">
+      <c r="T54">
         <v>74</v>
       </c>
-      <c r="R54" t="s">
+      <c r="V54" t="s">
         <v>57</v>
       </c>
-      <c r="T54">
+      <c r="X54">
         <v>77</v>
       </c>
-      <c r="U54">
+      <c r="Y54">
+        <v>56</v>
+      </c>
+      <c r="Z54">
         <v>63</v>
       </c>
-      <c r="V54">
+      <c r="AA54">
         <v>53</v>
       </c>
-      <c r="W54">
+      <c r="AB54">
         <v>59</v>
       </c>
-      <c r="X54">
+      <c r="AC54">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -3607,55 +4096,64 @@
         <v>66</v>
       </c>
       <c r="D55">
+        <v>65</v>
+      </c>
+      <c r="E55">
         <v>68</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>71</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>43</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>79</v>
       </c>
-      <c r="I55" t="s">
+      <c r="M55" t="s">
         <v>58</v>
       </c>
-      <c r="K55">
+      <c r="O55">
         <v>66</v>
       </c>
-      <c r="L55">
+      <c r="P55">
+        <v>64</v>
+      </c>
+      <c r="Q55">
         <v>67</v>
       </c>
-      <c r="M55">
+      <c r="R55">
         <v>69</v>
       </c>
-      <c r="N55">
+      <c r="S55">
         <v>31</v>
       </c>
-      <c r="O55">
+      <c r="T55">
         <v>79</v>
       </c>
-      <c r="R55" t="s">
+      <c r="V55" t="s">
         <v>58</v>
       </c>
-      <c r="T55">
+      <c r="X55">
         <v>66</v>
       </c>
-      <c r="U55">
+      <c r="Y55">
         <v>66</v>
       </c>
-      <c r="V55">
+      <c r="Z55">
+        <v>66</v>
+      </c>
+      <c r="AA55">
         <v>70</v>
       </c>
-      <c r="W55">
+      <c r="AB55">
         <v>47</v>
       </c>
-      <c r="X55">
+      <c r="AC55">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -3663,55 +4161,64 @@
         <v>55</v>
       </c>
       <c r="D56">
+        <v>34</v>
+      </c>
+      <c r="E56">
         <v>62</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>46</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>58</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>78</v>
       </c>
-      <c r="I56" t="s">
+      <c r="M56" t="s">
         <v>59</v>
       </c>
-      <c r="K56">
+      <c r="O56">
         <v>36</v>
       </c>
-      <c r="L56">
+      <c r="P56">
+        <v>55</v>
+      </c>
+      <c r="Q56">
         <v>59</v>
       </c>
-      <c r="M56">
+      <c r="R56">
         <v>34</v>
       </c>
-      <c r="N56">
+      <c r="S56">
         <v>46</v>
       </c>
-      <c r="O56">
+      <c r="T56">
         <v>75</v>
       </c>
-      <c r="R56" t="s">
+      <c r="V56" t="s">
         <v>59</v>
       </c>
-      <c r="T56">
+      <c r="X56">
         <v>23</v>
       </c>
-      <c r="U56">
+      <c r="Y56">
+        <v>33</v>
+      </c>
+      <c r="Z56">
         <v>64</v>
       </c>
-      <c r="V56">
+      <c r="AA56">
         <v>43</v>
       </c>
-      <c r="W56">
+      <c r="AB56">
         <v>61</v>
       </c>
-      <c r="X56">
+      <c r="AC56">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -3719,55 +4226,64 @@
         <v>66</v>
       </c>
       <c r="D57">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E57">
         <v>66</v>
       </c>
       <c r="F57">
+        <v>66</v>
+      </c>
+      <c r="G57">
         <v>71</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>69</v>
       </c>
-      <c r="I57" t="s">
+      <c r="M57" t="s">
         <v>60</v>
       </c>
-      <c r="K57">
+      <c r="O57">
         <v>63</v>
       </c>
-      <c r="L57">
+      <c r="P57">
+        <v>62</v>
+      </c>
+      <c r="Q57">
         <v>65</v>
       </c>
-      <c r="M57">
+      <c r="R57">
         <v>64</v>
       </c>
-      <c r="N57">
+      <c r="S57">
         <v>71</v>
       </c>
-      <c r="O57">
+      <c r="T57">
         <v>65</v>
       </c>
-      <c r="R57" t="s">
+      <c r="V57" t="s">
         <v>60</v>
       </c>
-      <c r="T57">
+      <c r="X57">
         <v>67</v>
       </c>
-      <c r="U57">
+      <c r="Y57">
+        <v>67</v>
+      </c>
+      <c r="Z57">
         <v>65</v>
       </c>
-      <c r="V57">
+      <c r="AA57">
         <v>66</v>
       </c>
-      <c r="W57">
+      <c r="AB57">
         <v>71</v>
       </c>
-      <c r="X57">
+      <c r="AC57">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -3778,52 +4294,61 @@
         <v>13</v>
       </c>
       <c r="E58">
+        <v>13</v>
+      </c>
+      <c r="F58">
         <v>26</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>18</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>22</v>
       </c>
-      <c r="I58" t="s">
+      <c r="M58" t="s">
         <v>61</v>
       </c>
-      <c r="K58">
+      <c r="O58">
         <v>11</v>
       </c>
-      <c r="L58">
+      <c r="P58">
         <v>13</v>
       </c>
-      <c r="M58">
+      <c r="Q58">
+        <v>13</v>
+      </c>
+      <c r="R58">
         <v>29</v>
       </c>
-      <c r="N58">
+      <c r="S58">
         <v>16</v>
       </c>
-      <c r="O58">
+      <c r="T58">
         <v>25</v>
       </c>
-      <c r="R58" t="s">
+      <c r="V58" t="s">
         <v>61</v>
       </c>
-      <c r="T58">
+      <c r="X58">
         <v>11</v>
       </c>
-      <c r="U58">
+      <c r="Y58">
         <v>13</v>
       </c>
-      <c r="V58">
+      <c r="Z58">
+        <v>13</v>
+      </c>
+      <c r="AA58">
         <v>23</v>
       </c>
-      <c r="W58">
+      <c r="AB58">
         <v>16</v>
       </c>
-      <c r="X58">
+      <c r="AC58">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -3831,55 +4356,64 @@
         <v>72</v>
       </c>
       <c r="D59">
+        <v>71</v>
+      </c>
+      <c r="E59">
         <v>70</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>69</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>46</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>74</v>
       </c>
-      <c r="I59" t="s">
+      <c r="M59" t="s">
         <v>62</v>
       </c>
-      <c r="K59">
+      <c r="O59">
         <v>72</v>
       </c>
-      <c r="L59">
+      <c r="P59">
+        <v>71</v>
+      </c>
+      <c r="Q59">
         <v>68</v>
       </c>
-      <c r="M59">
+      <c r="R59">
         <v>72</v>
       </c>
-      <c r="N59">
+      <c r="S59">
         <v>48</v>
       </c>
-      <c r="O59">
+      <c r="T59">
         <v>70</v>
       </c>
-      <c r="R59" t="s">
+      <c r="V59" t="s">
         <v>62</v>
       </c>
-      <c r="T59">
+      <c r="X59">
         <v>72</v>
       </c>
-      <c r="U59">
+      <c r="Y59">
         <v>71</v>
       </c>
-      <c r="V59">
+      <c r="Z59">
+        <v>71</v>
+      </c>
+      <c r="AA59">
         <v>72</v>
       </c>
-      <c r="W59">
+      <c r="AB59">
         <v>68</v>
       </c>
-      <c r="X59">
+      <c r="AC59">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -3887,55 +4421,64 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60">
         <v>9</v>
       </c>
       <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60">
         <v>10</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>9</v>
       </c>
-      <c r="I60" t="s">
+      <c r="M60" t="s">
         <v>63</v>
       </c>
-      <c r="K60">
+      <c r="O60">
         <v>4</v>
       </c>
-      <c r="L60">
+      <c r="P60">
         <v>10</v>
       </c>
-      <c r="M60">
+      <c r="Q60">
+        <v>10</v>
+      </c>
+      <c r="R60">
         <v>9</v>
       </c>
-      <c r="N60">
+      <c r="S60">
         <v>6</v>
       </c>
-      <c r="O60">
+      <c r="T60">
         <v>10</v>
       </c>
-      <c r="R60" t="s">
+      <c r="V60" t="s">
         <v>63</v>
-      </c>
-      <c r="T60">
-        <v>9</v>
-      </c>
-      <c r="U60">
-        <v>14</v>
-      </c>
-      <c r="V60">
-        <v>9</v>
-      </c>
-      <c r="W60">
-        <v>10</v>
       </c>
       <c r="X60">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y60">
+        <v>10</v>
+      </c>
+      <c r="Z60">
+        <v>14</v>
+      </c>
+      <c r="AA60">
+        <v>9</v>
+      </c>
+      <c r="AB60">
+        <v>10</v>
+      </c>
+      <c r="AC60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -3943,55 +4486,64 @@
         <v>53</v>
       </c>
       <c r="D61">
+        <v>70</v>
+      </c>
+      <c r="E61">
         <v>54</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>74</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>57</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>60</v>
       </c>
-      <c r="I61" t="s">
+      <c r="M61" t="s">
         <v>64</v>
       </c>
-      <c r="K61">
+      <c r="O61">
         <v>52</v>
       </c>
-      <c r="L61">
+      <c r="P61">
         <v>70</v>
       </c>
-      <c r="M61">
+      <c r="Q61">
+        <v>70</v>
+      </c>
+      <c r="R61">
         <v>75</v>
       </c>
-      <c r="N61">
+      <c r="S61">
         <v>41</v>
       </c>
-      <c r="O61">
+      <c r="T61">
         <v>60</v>
       </c>
-      <c r="R61" t="s">
+      <c r="V61" t="s">
         <v>64</v>
       </c>
-      <c r="T61">
+      <c r="X61">
         <v>52</v>
       </c>
-      <c r="U61">
+      <c r="Y61">
+        <v>70</v>
+      </c>
+      <c r="Z61">
         <v>71</v>
       </c>
-      <c r="V61">
+      <c r="AA61">
         <v>74</v>
       </c>
-      <c r="W61">
+      <c r="AB61">
         <v>57</v>
       </c>
-      <c r="X61">
+      <c r="AC61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -3999,55 +4551,64 @@
         <v>62</v>
       </c>
       <c r="D62">
+        <v>55</v>
+      </c>
+      <c r="E62">
         <v>61</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>54</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>67</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>62</v>
       </c>
-      <c r="I62" t="s">
+      <c r="M62" t="s">
         <v>65</v>
-      </c>
-      <c r="K62">
-        <v>62</v>
-      </c>
-      <c r="L62">
-        <v>63</v>
-      </c>
-      <c r="M62">
-        <v>55</v>
-      </c>
-      <c r="N62">
-        <v>67</v>
       </c>
       <c r="O62">
         <v>62</v>
       </c>
-      <c r="R62" t="s">
-        <v>65</v>
+      <c r="P62">
+        <v>55</v>
+      </c>
+      <c r="Q62">
+        <v>63</v>
+      </c>
+      <c r="R62">
+        <v>55</v>
+      </c>
+      <c r="S62">
+        <v>67</v>
       </c>
       <c r="T62">
         <v>62</v>
       </c>
-      <c r="U62">
-        <v>63</v>
-      </c>
-      <c r="V62">
-        <v>55</v>
-      </c>
-      <c r="W62">
-        <v>67</v>
+      <c r="V62" t="s">
+        <v>65</v>
       </c>
       <c r="X62">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y62">
+        <v>55</v>
+      </c>
+      <c r="Z62">
+        <v>63</v>
+      </c>
+      <c r="AA62">
+        <v>55</v>
+      </c>
+      <c r="AB62">
+        <v>67</v>
+      </c>
+      <c r="AC62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -4055,55 +4616,64 @@
         <v>44</v>
       </c>
       <c r="D63">
+        <v>68</v>
+      </c>
+      <c r="E63">
         <v>69</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>68</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>44</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>77</v>
       </c>
-      <c r="I63" t="s">
+      <c r="M63" t="s">
         <v>66</v>
       </c>
-      <c r="K63">
+      <c r="O63">
         <v>44</v>
       </c>
-      <c r="L63">
+      <c r="P63">
+        <v>71</v>
+      </c>
+      <c r="Q63">
         <v>68</v>
       </c>
-      <c r="M63">
+      <c r="R63">
         <v>55</v>
       </c>
-      <c r="N63">
+      <c r="S63">
         <v>44</v>
       </c>
-      <c r="O63">
+      <c r="T63">
         <v>75</v>
       </c>
-      <c r="R63" t="s">
+      <c r="V63" t="s">
         <v>66</v>
       </c>
-      <c r="T63">
+      <c r="X63">
         <v>44</v>
       </c>
-      <c r="U63">
+      <c r="Y63">
+        <v>73</v>
+      </c>
+      <c r="Z63">
         <v>64</v>
       </c>
-      <c r="V63">
+      <c r="AA63">
         <v>60</v>
       </c>
-      <c r="W63">
+      <c r="AB63">
         <v>44</v>
       </c>
-      <c r="X63">
+      <c r="AC63">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -4111,55 +4681,64 @@
         <v>54</v>
       </c>
       <c r="D64">
+        <v>58</v>
+      </c>
+      <c r="E64">
         <v>55</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>61</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>52</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>57</v>
       </c>
-      <c r="I64" t="s">
+      <c r="M64" t="s">
         <v>67</v>
       </c>
-      <c r="K64">
+      <c r="O64">
         <v>53</v>
       </c>
-      <c r="L64">
+      <c r="P64">
+        <v>58</v>
+      </c>
+      <c r="Q64">
         <v>55</v>
       </c>
-      <c r="M64">
+      <c r="R64">
         <v>56</v>
       </c>
-      <c r="N64">
+      <c r="S64">
         <v>58</v>
       </c>
-      <c r="O64">
+      <c r="T64">
         <v>63</v>
       </c>
-      <c r="R64" t="s">
+      <c r="V64" t="s">
         <v>67</v>
       </c>
-      <c r="T64">
+      <c r="X64">
         <v>56</v>
       </c>
-      <c r="U64">
+      <c r="Y64">
+        <v>59</v>
+      </c>
+      <c r="Z64">
         <v>60</v>
       </c>
-      <c r="V64">
+      <c r="AA64">
         <v>71</v>
       </c>
-      <c r="W64">
+      <c r="AB64">
         <v>55</v>
       </c>
-      <c r="X64">
+      <c r="AC64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -4167,141 +4746,150 @@
         <v>83</v>
       </c>
       <c r="D65">
+        <v>53</v>
+      </c>
+      <c r="E65">
         <v>81</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>52</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>80</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>58</v>
       </c>
-      <c r="I65" t="s">
+      <c r="M65" t="s">
         <v>68</v>
       </c>
-      <c r="K65">
+      <c r="O65">
         <v>83</v>
       </c>
-      <c r="L65">
+      <c r="P65">
+        <v>53</v>
+      </c>
+      <c r="Q65">
         <v>79</v>
       </c>
-      <c r="M65">
+      <c r="R65">
         <v>53</v>
       </c>
-      <c r="N65">
+      <c r="S65">
         <v>80</v>
       </c>
-      <c r="O65">
+      <c r="T65">
         <v>58</v>
       </c>
-      <c r="R65" t="s">
+      <c r="V65" t="s">
         <v>68</v>
       </c>
-      <c r="T65">
+      <c r="X65">
         <v>83</v>
       </c>
-      <c r="U65">
+      <c r="Y65">
+        <v>53</v>
+      </c>
+      <c r="Z65">
         <v>79</v>
       </c>
-      <c r="V65">
+      <c r="AA65">
         <v>53</v>
       </c>
-      <c r="W65">
+      <c r="AB65">
         <v>82</v>
       </c>
-      <c r="X65">
+      <c r="AC65">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C66">
         <f>AVERAGE(C2:C65)</f>
         <v>39.40625</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:X66" si="0">AVERAGE(D2:D65)</f>
+        <f>AVERAGE(D2:D65)</f>
+        <v>40.734375</v>
+      </c>
+      <c r="E66">
+        <f>AVERAGE(E2:E65)</f>
         <v>42.234375</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
+      <c r="F66">
+        <f>AVERAGE(F2:F65)</f>
         <v>42.828125</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
+      <c r="G66">
+        <f>AVERAGE(G2:G65)</f>
         <v>42.625</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
+      <c r="H66">
+        <f>AVERAGE(H2:H65)</f>
         <v>49.0625</v>
       </c>
-      <c r="H66" t="e">
+      <c r="M66" t="e">
+        <f t="shared" ref="M66:S66" si="0">AVERAGE(M2:M65)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N66" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I66" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J66" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K66">
+      <c r="O66">
         <f t="shared" si="0"/>
         <v>39.53125</v>
       </c>
-      <c r="L66">
+      <c r="P66">
         <f t="shared" si="0"/>
+        <v>41.703125</v>
+      </c>
+      <c r="Q66">
+        <f>AVERAGE(Q2:Q65)</f>
         <v>43.65625</v>
       </c>
-      <c r="M66">
-        <f t="shared" si="0"/>
+      <c r="R66">
+        <f>AVERAGE(R2:R65)</f>
         <v>42.484375</v>
       </c>
-      <c r="N66">
-        <f t="shared" si="0"/>
+      <c r="S66">
+        <f>AVERAGE(S2:S65)</f>
         <v>40.6875</v>
       </c>
-      <c r="O66">
-        <f t="shared" si="0"/>
+      <c r="T66">
+        <f>AVERAGE(T2:T65)</f>
         <v>49.046875</v>
       </c>
-      <c r="P66" t="e">
-        <f t="shared" si="0"/>
+      <c r="V66" t="e">
+        <f t="shared" ref="V66:AB66" si="1">AVERAGE(V2:V65)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q66" t="e">
-        <f t="shared" si="0"/>
+      <c r="W66" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R66" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S66" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T66">
-        <f t="shared" si="0"/>
+      <c r="X66">
+        <f t="shared" si="1"/>
         <v>38.984375</v>
       </c>
-      <c r="U66">
-        <f t="shared" si="0"/>
+      <c r="Y66">
+        <f t="shared" si="1"/>
+        <v>42.125</v>
+      </c>
+      <c r="Z66">
+        <f>AVERAGE(Z2:Z65)</f>
         <v>43.734375</v>
       </c>
-      <c r="V66">
-        <f t="shared" si="0"/>
+      <c r="AA66">
+        <f>AVERAGE(AA2:AA65)</f>
         <v>41.578125</v>
       </c>
-      <c r="W66">
-        <f t="shared" si="0"/>
+      <c r="AB66">
+        <f>AVERAGE(AB2:AB65)</f>
         <v>41.15625</v>
       </c>
-      <c r="X66">
-        <f t="shared" si="0"/>
+      <c r="AC66">
+        <f>AVERAGE(AC2:AC65)</f>
         <v>49.125</v>
       </c>
     </row>
